--- a/sequences/10_retrieval_2.xlsx
+++ b/sequences/10_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -2076,6 +2076,30 @@
       <c r="F7" t="s">
         <v>210</v>
       </c>
+      <c r="G7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2140,6 +2164,30 @@
       <c r="F9" t="s">
         <v>210</v>
       </c>
+      <c r="G9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L9" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2424,6 +2472,30 @@
       <c r="F16" t="s">
         <v>210</v>
       </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" t="s">
+        <v>210</v>
+      </c>
+      <c r="K16" t="s">
+        <v>210</v>
+      </c>
+      <c r="L16" t="s">
+        <v>210</v>
+      </c>
+      <c r="M16" t="s">
+        <v>210</v>
+      </c>
+      <c r="N16" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2488,6 +2560,30 @@
       <c r="F18" t="s">
         <v>210</v>
       </c>
+      <c r="G18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" t="s">
+        <v>210</v>
+      </c>
+      <c r="J18" t="s">
+        <v>210</v>
+      </c>
+      <c r="K18" t="s">
+        <v>210</v>
+      </c>
+      <c r="L18" t="s">
+        <v>210</v>
+      </c>
+      <c r="M18" t="s">
+        <v>210</v>
+      </c>
+      <c r="N18" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2552,6 +2648,30 @@
       <c r="F20" t="s">
         <v>210</v>
       </c>
+      <c r="G20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" t="s">
+        <v>210</v>
+      </c>
+      <c r="J20" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="s">
+        <v>210</v>
+      </c>
+      <c r="N20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2660,6 +2780,30 @@
       <c r="F23" t="s">
         <v>210</v>
       </c>
+      <c r="G23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2856,6 +3000,30 @@
       <c r="F28" t="s">
         <v>210</v>
       </c>
+      <c r="G28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" t="s">
+        <v>210</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="s">
+        <v>210</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
@@ -3096,6 +3264,30 @@
       <c r="F34" t="s">
         <v>210</v>
       </c>
+      <c r="G34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" t="s">
+        <v>210</v>
+      </c>
+      <c r="M34" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3248,6 +3440,30 @@
       <c r="F38" t="s">
         <v>210</v>
       </c>
+      <c r="G38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" t="s">
+        <v>210</v>
+      </c>
+      <c r="J38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" t="s">
+        <v>210</v>
+      </c>
+      <c r="L38" t="s">
+        <v>210</v>
+      </c>
+      <c r="M38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N38" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3356,6 +3572,30 @@
       <c r="F41" t="s">
         <v>210</v>
       </c>
+      <c r="G41" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" t="s">
+        <v>210</v>
+      </c>
+      <c r="J41" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" t="s">
+        <v>210</v>
+      </c>
+      <c r="L41" t="s">
+        <v>210</v>
+      </c>
+      <c r="M41" t="s">
+        <v>210</v>
+      </c>
+      <c r="N41" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3508,6 +3748,30 @@
       <c r="F45" t="s">
         <v>210</v>
       </c>
+      <c r="G45" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" t="s">
+        <v>210</v>
+      </c>
+      <c r="K45" t="s">
+        <v>210</v>
+      </c>
+      <c r="L45" t="s">
+        <v>210</v>
+      </c>
+      <c r="M45" t="s">
+        <v>210</v>
+      </c>
+      <c r="N45" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3704,6 +3968,30 @@
       <c r="F50" t="s">
         <v>210</v>
       </c>
+      <c r="G50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H50" t="s">
+        <v>210</v>
+      </c>
+      <c r="I50" t="s">
+        <v>210</v>
+      </c>
+      <c r="J50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K50" t="s">
+        <v>210</v>
+      </c>
+      <c r="L50" t="s">
+        <v>210</v>
+      </c>
+      <c r="M50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N50" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3724,6 +4012,30 @@
       <c r="F51" t="s">
         <v>210</v>
       </c>
+      <c r="G51" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" t="s">
+        <v>210</v>
+      </c>
+      <c r="I51" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" t="s">
+        <v>210</v>
+      </c>
+      <c r="K51" t="s">
+        <v>210</v>
+      </c>
+      <c r="L51" t="s">
+        <v>210</v>
+      </c>
+      <c r="M51" t="s">
+        <v>210</v>
+      </c>
+      <c r="N51" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3876,6 +4188,30 @@
       <c r="F55" t="s">
         <v>210</v>
       </c>
+      <c r="G55" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" t="s">
+        <v>210</v>
+      </c>
+      <c r="J55" t="s">
+        <v>210</v>
+      </c>
+      <c r="K55" t="s">
+        <v>210</v>
+      </c>
+      <c r="L55" t="s">
+        <v>210</v>
+      </c>
+      <c r="M55" t="s">
+        <v>210</v>
+      </c>
+      <c r="N55" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3984,6 +4320,30 @@
       <c r="F58" t="s">
         <v>210</v>
       </c>
+      <c r="G58" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" t="s">
+        <v>210</v>
+      </c>
+      <c r="I58" t="s">
+        <v>210</v>
+      </c>
+      <c r="J58" t="s">
+        <v>210</v>
+      </c>
+      <c r="K58" t="s">
+        <v>210</v>
+      </c>
+      <c r="L58" t="s">
+        <v>210</v>
+      </c>
+      <c r="M58" t="s">
+        <v>210</v>
+      </c>
+      <c r="N58" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -4180,6 +4540,30 @@
       <c r="F63" t="s">
         <v>210</v>
       </c>
+      <c r="G63" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" t="s">
+        <v>210</v>
+      </c>
+      <c r="I63" t="s">
+        <v>210</v>
+      </c>
+      <c r="J63" t="s">
+        <v>210</v>
+      </c>
+      <c r="K63" t="s">
+        <v>210</v>
+      </c>
+      <c r="L63" t="s">
+        <v>210</v>
+      </c>
+      <c r="M63" t="s">
+        <v>210</v>
+      </c>
+      <c r="N63" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4244,6 +4628,30 @@
       <c r="F65" t="s">
         <v>210</v>
       </c>
+      <c r="G65" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" t="s">
+        <v>210</v>
+      </c>
+      <c r="J65" t="s">
+        <v>210</v>
+      </c>
+      <c r="K65" t="s">
+        <v>210</v>
+      </c>
+      <c r="L65" t="s">
+        <v>210</v>
+      </c>
+      <c r="M65" t="s">
+        <v>210</v>
+      </c>
+      <c r="N65" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4264,6 +4672,30 @@
       <c r="F66" t="s">
         <v>210</v>
       </c>
+      <c r="G66" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66" t="s">
+        <v>210</v>
+      </c>
+      <c r="J66" t="s">
+        <v>210</v>
+      </c>
+      <c r="K66" t="s">
+        <v>210</v>
+      </c>
+      <c r="L66" t="s">
+        <v>210</v>
+      </c>
+      <c r="M66" t="s">
+        <v>210</v>
+      </c>
+      <c r="N66" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
@@ -4416,6 +4848,30 @@
       <c r="F70" t="s">
         <v>210</v>
       </c>
+      <c r="G70" t="s">
+        <v>210</v>
+      </c>
+      <c r="H70" t="s">
+        <v>210</v>
+      </c>
+      <c r="I70" t="s">
+        <v>210</v>
+      </c>
+      <c r="J70" t="s">
+        <v>210</v>
+      </c>
+      <c r="K70" t="s">
+        <v>210</v>
+      </c>
+      <c r="L70" t="s">
+        <v>210</v>
+      </c>
+      <c r="M70" t="s">
+        <v>210</v>
+      </c>
+      <c r="N70" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
@@ -4700,6 +5156,30 @@
       <c r="F77" t="s">
         <v>210</v>
       </c>
+      <c r="G77" t="s">
+        <v>210</v>
+      </c>
+      <c r="H77" t="s">
+        <v>210</v>
+      </c>
+      <c r="I77" t="s">
+        <v>210</v>
+      </c>
+      <c r="J77" t="s">
+        <v>210</v>
+      </c>
+      <c r="K77" t="s">
+        <v>210</v>
+      </c>
+      <c r="L77" t="s">
+        <v>210</v>
+      </c>
+      <c r="M77" t="s">
+        <v>210</v>
+      </c>
+      <c r="N77" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4940,6 +5420,30 @@
       <c r="F83" t="s">
         <v>210</v>
       </c>
+      <c r="G83" t="s">
+        <v>210</v>
+      </c>
+      <c r="H83" t="s">
+        <v>210</v>
+      </c>
+      <c r="I83" t="s">
+        <v>210</v>
+      </c>
+      <c r="J83" t="s">
+        <v>210</v>
+      </c>
+      <c r="K83" t="s">
+        <v>210</v>
+      </c>
+      <c r="L83" t="s">
+        <v>210</v>
+      </c>
+      <c r="M83" t="s">
+        <v>210</v>
+      </c>
+      <c r="N83" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
@@ -4960,6 +5464,30 @@
       <c r="F84" t="s">
         <v>210</v>
       </c>
+      <c r="G84" t="s">
+        <v>210</v>
+      </c>
+      <c r="H84" t="s">
+        <v>210</v>
+      </c>
+      <c r="I84" t="s">
+        <v>210</v>
+      </c>
+      <c r="J84" t="s">
+        <v>210</v>
+      </c>
+      <c r="K84" t="s">
+        <v>210</v>
+      </c>
+      <c r="L84" t="s">
+        <v>210</v>
+      </c>
+      <c r="M84" t="s">
+        <v>210</v>
+      </c>
+      <c r="N84" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -4980,6 +5508,30 @@
       <c r="F85" t="s">
         <v>210</v>
       </c>
+      <c r="G85" t="s">
+        <v>210</v>
+      </c>
+      <c r="H85" t="s">
+        <v>210</v>
+      </c>
+      <c r="I85" t="s">
+        <v>210</v>
+      </c>
+      <c r="J85" t="s">
+        <v>210</v>
+      </c>
+      <c r="K85" t="s">
+        <v>210</v>
+      </c>
+      <c r="L85" t="s">
+        <v>210</v>
+      </c>
+      <c r="M85" t="s">
+        <v>210</v>
+      </c>
+      <c r="N85" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -5088,6 +5640,30 @@
       <c r="F88" t="s">
         <v>210</v>
       </c>
+      <c r="G88" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" t="s">
+        <v>210</v>
+      </c>
+      <c r="I88" t="s">
+        <v>210</v>
+      </c>
+      <c r="J88" t="s">
+        <v>210</v>
+      </c>
+      <c r="K88" t="s">
+        <v>210</v>
+      </c>
+      <c r="L88" t="s">
+        <v>210</v>
+      </c>
+      <c r="M88" t="s">
+        <v>210</v>
+      </c>
+      <c r="N88" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -5152,6 +5728,30 @@
       <c r="F90" t="s">
         <v>210</v>
       </c>
+      <c r="G90" t="s">
+        <v>210</v>
+      </c>
+      <c r="H90" t="s">
+        <v>210</v>
+      </c>
+      <c r="I90" t="s">
+        <v>210</v>
+      </c>
+      <c r="J90" t="s">
+        <v>210</v>
+      </c>
+      <c r="K90" t="s">
+        <v>210</v>
+      </c>
+      <c r="L90" t="s">
+        <v>210</v>
+      </c>
+      <c r="M90" t="s">
+        <v>210</v>
+      </c>
+      <c r="N90" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
@@ -5260,6 +5860,30 @@
       <c r="F93" t="s">
         <v>210</v>
       </c>
+      <c r="G93" t="s">
+        <v>210</v>
+      </c>
+      <c r="H93" t="s">
+        <v>210</v>
+      </c>
+      <c r="I93" t="s">
+        <v>210</v>
+      </c>
+      <c r="J93" t="s">
+        <v>210</v>
+      </c>
+      <c r="K93" t="s">
+        <v>210</v>
+      </c>
+      <c r="L93" t="s">
+        <v>210</v>
+      </c>
+      <c r="M93" t="s">
+        <v>210</v>
+      </c>
+      <c r="N93" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5280,6 +5904,30 @@
       <c r="F94" t="s">
         <v>210</v>
       </c>
+      <c r="G94" t="s">
+        <v>210</v>
+      </c>
+      <c r="H94" t="s">
+        <v>210</v>
+      </c>
+      <c r="I94" t="s">
+        <v>210</v>
+      </c>
+      <c r="J94" t="s">
+        <v>210</v>
+      </c>
+      <c r="K94" t="s">
+        <v>210</v>
+      </c>
+      <c r="L94" t="s">
+        <v>210</v>
+      </c>
+      <c r="M94" t="s">
+        <v>210</v>
+      </c>
+      <c r="N94" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5344,6 +5992,30 @@
       <c r="F96" t="s">
         <v>210</v>
       </c>
+      <c r="G96" t="s">
+        <v>210</v>
+      </c>
+      <c r="H96" t="s">
+        <v>210</v>
+      </c>
+      <c r="I96" t="s">
+        <v>210</v>
+      </c>
+      <c r="J96" t="s">
+        <v>210</v>
+      </c>
+      <c r="K96" t="s">
+        <v>210</v>
+      </c>
+      <c r="L96" t="s">
+        <v>210</v>
+      </c>
+      <c r="M96" t="s">
+        <v>210</v>
+      </c>
+      <c r="N96" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5496,6 +6168,30 @@
       <c r="F100" t="s">
         <v>210</v>
       </c>
+      <c r="G100" t="s">
+        <v>210</v>
+      </c>
+      <c r="H100" t="s">
+        <v>210</v>
+      </c>
+      <c r="I100" t="s">
+        <v>210</v>
+      </c>
+      <c r="J100" t="s">
+        <v>210</v>
+      </c>
+      <c r="K100" t="s">
+        <v>210</v>
+      </c>
+      <c r="L100" t="s">
+        <v>210</v>
+      </c>
+      <c r="M100" t="s">
+        <v>210</v>
+      </c>
+      <c r="N100" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
@@ -5648,6 +6344,30 @@
       <c r="F104" t="s">
         <v>210</v>
       </c>
+      <c r="G104" t="s">
+        <v>210</v>
+      </c>
+      <c r="H104" t="s">
+        <v>210</v>
+      </c>
+      <c r="I104" t="s">
+        <v>210</v>
+      </c>
+      <c r="J104" t="s">
+        <v>210</v>
+      </c>
+      <c r="K104" t="s">
+        <v>210</v>
+      </c>
+      <c r="L104" t="s">
+        <v>210</v>
+      </c>
+      <c r="M104" t="s">
+        <v>210</v>
+      </c>
+      <c r="N104" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
@@ -5800,6 +6520,30 @@
       <c r="F108" t="s">
         <v>210</v>
       </c>
+      <c r="G108" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" t="s">
+        <v>210</v>
+      </c>
+      <c r="I108" t="s">
+        <v>210</v>
+      </c>
+      <c r="J108" t="s">
+        <v>210</v>
+      </c>
+      <c r="K108" t="s">
+        <v>210</v>
+      </c>
+      <c r="L108" t="s">
+        <v>210</v>
+      </c>
+      <c r="M108" t="s">
+        <v>210</v>
+      </c>
+      <c r="N108" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5864,6 +6608,30 @@
       <c r="F110" t="s">
         <v>210</v>
       </c>
+      <c r="G110" t="s">
+        <v>210</v>
+      </c>
+      <c r="H110" t="s">
+        <v>210</v>
+      </c>
+      <c r="I110" t="s">
+        <v>210</v>
+      </c>
+      <c r="J110" t="s">
+        <v>210</v>
+      </c>
+      <c r="K110" t="s">
+        <v>210</v>
+      </c>
+      <c r="L110" t="s">
+        <v>210</v>
+      </c>
+      <c r="M110" t="s">
+        <v>210</v>
+      </c>
+      <c r="N110" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -6060,6 +6828,30 @@
       <c r="F115" t="s">
         <v>210</v>
       </c>
+      <c r="G115" t="s">
+        <v>210</v>
+      </c>
+      <c r="H115" t="s">
+        <v>210</v>
+      </c>
+      <c r="I115" t="s">
+        <v>210</v>
+      </c>
+      <c r="J115" t="s">
+        <v>210</v>
+      </c>
+      <c r="K115" t="s">
+        <v>210</v>
+      </c>
+      <c r="L115" t="s">
+        <v>210</v>
+      </c>
+      <c r="M115" t="s">
+        <v>210</v>
+      </c>
+      <c r="N115" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -6124,6 +6916,30 @@
       <c r="F117" t="s">
         <v>210</v>
       </c>
+      <c r="G117" t="s">
+        <v>210</v>
+      </c>
+      <c r="H117" t="s">
+        <v>210</v>
+      </c>
+      <c r="I117" t="s">
+        <v>210</v>
+      </c>
+      <c r="J117" t="s">
+        <v>210</v>
+      </c>
+      <c r="K117" t="s">
+        <v>210</v>
+      </c>
+      <c r="L117" t="s">
+        <v>210</v>
+      </c>
+      <c r="M117" t="s">
+        <v>210</v>
+      </c>
+      <c r="N117" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6188,6 +7004,30 @@
       <c r="F119" t="s">
         <v>210</v>
       </c>
+      <c r="G119" t="s">
+        <v>210</v>
+      </c>
+      <c r="H119" t="s">
+        <v>210</v>
+      </c>
+      <c r="I119" t="s">
+        <v>210</v>
+      </c>
+      <c r="J119" t="s">
+        <v>210</v>
+      </c>
+      <c r="K119" t="s">
+        <v>210</v>
+      </c>
+      <c r="L119" t="s">
+        <v>210</v>
+      </c>
+      <c r="M119" t="s">
+        <v>210</v>
+      </c>
+      <c r="N119" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6208,6 +7048,30 @@
       <c r="F120" t="s">
         <v>210</v>
       </c>
+      <c r="G120" t="s">
+        <v>210</v>
+      </c>
+      <c r="H120" t="s">
+        <v>210</v>
+      </c>
+      <c r="I120" t="s">
+        <v>210</v>
+      </c>
+      <c r="J120" t="s">
+        <v>210</v>
+      </c>
+      <c r="K120" t="s">
+        <v>210</v>
+      </c>
+      <c r="L120" t="s">
+        <v>210</v>
+      </c>
+      <c r="M120" t="s">
+        <v>210</v>
+      </c>
+      <c r="N120" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6492,6 +7356,30 @@
       <c r="F127" t="s">
         <v>210</v>
       </c>
+      <c r="G127" t="s">
+        <v>210</v>
+      </c>
+      <c r="H127" t="s">
+        <v>210</v>
+      </c>
+      <c r="I127" t="s">
+        <v>210</v>
+      </c>
+      <c r="J127" t="s">
+        <v>210</v>
+      </c>
+      <c r="K127" t="s">
+        <v>210</v>
+      </c>
+      <c r="L127" t="s">
+        <v>210</v>
+      </c>
+      <c r="M127" t="s">
+        <v>210</v>
+      </c>
+      <c r="N127" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6688,6 +7576,30 @@
       <c r="F132" t="s">
         <v>210</v>
       </c>
+      <c r="G132" t="s">
+        <v>210</v>
+      </c>
+      <c r="H132" t="s">
+        <v>210</v>
+      </c>
+      <c r="I132" t="s">
+        <v>210</v>
+      </c>
+      <c r="J132" t="s">
+        <v>210</v>
+      </c>
+      <c r="K132" t="s">
+        <v>210</v>
+      </c>
+      <c r="L132" t="s">
+        <v>210</v>
+      </c>
+      <c r="M132" t="s">
+        <v>210</v>
+      </c>
+      <c r="N132" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6752,6 +7664,30 @@
       <c r="F134" t="s">
         <v>210</v>
       </c>
+      <c r="G134" t="s">
+        <v>210</v>
+      </c>
+      <c r="H134" t="s">
+        <v>210</v>
+      </c>
+      <c r="I134" t="s">
+        <v>210</v>
+      </c>
+      <c r="J134" t="s">
+        <v>210</v>
+      </c>
+      <c r="K134" t="s">
+        <v>210</v>
+      </c>
+      <c r="L134" t="s">
+        <v>210</v>
+      </c>
+      <c r="M134" t="s">
+        <v>210</v>
+      </c>
+      <c r="N134" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
@@ -6772,6 +7708,30 @@
       <c r="F135" t="s">
         <v>210</v>
       </c>
+      <c r="G135" t="s">
+        <v>210</v>
+      </c>
+      <c r="H135" t="s">
+        <v>210</v>
+      </c>
+      <c r="I135" t="s">
+        <v>210</v>
+      </c>
+      <c r="J135" t="s">
+        <v>210</v>
+      </c>
+      <c r="K135" t="s">
+        <v>210</v>
+      </c>
+      <c r="L135" t="s">
+        <v>210</v>
+      </c>
+      <c r="M135" t="s">
+        <v>210</v>
+      </c>
+      <c r="N135" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6924,6 +7884,30 @@
       <c r="F139" t="s">
         <v>210</v>
       </c>
+      <c r="G139" t="s">
+        <v>210</v>
+      </c>
+      <c r="H139" t="s">
+        <v>210</v>
+      </c>
+      <c r="I139" t="s">
+        <v>210</v>
+      </c>
+      <c r="J139" t="s">
+        <v>210</v>
+      </c>
+      <c r="K139" t="s">
+        <v>210</v>
+      </c>
+      <c r="L139" t="s">
+        <v>210</v>
+      </c>
+      <c r="M139" t="s">
+        <v>210</v>
+      </c>
+      <c r="N139" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6944,6 +7928,30 @@
       <c r="F140" t="s">
         <v>210</v>
       </c>
+      <c r="G140" t="s">
+        <v>210</v>
+      </c>
+      <c r="H140" t="s">
+        <v>210</v>
+      </c>
+      <c r="I140" t="s">
+        <v>210</v>
+      </c>
+      <c r="J140" t="s">
+        <v>210</v>
+      </c>
+      <c r="K140" t="s">
+        <v>210</v>
+      </c>
+      <c r="L140" t="s">
+        <v>210</v>
+      </c>
+      <c r="M140" t="s">
+        <v>210</v>
+      </c>
+      <c r="N140" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -7008,6 +8016,30 @@
       <c r="F142" t="s">
         <v>210</v>
       </c>
+      <c r="G142" t="s">
+        <v>210</v>
+      </c>
+      <c r="H142" t="s">
+        <v>210</v>
+      </c>
+      <c r="I142" t="s">
+        <v>210</v>
+      </c>
+      <c r="J142" t="s">
+        <v>210</v>
+      </c>
+      <c r="K142" t="s">
+        <v>210</v>
+      </c>
+      <c r="L142" t="s">
+        <v>210</v>
+      </c>
+      <c r="M142" t="s">
+        <v>210</v>
+      </c>
+      <c r="N142" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -7248,6 +8280,30 @@
       <c r="F148" t="s">
         <v>210</v>
       </c>
+      <c r="G148" t="s">
+        <v>210</v>
+      </c>
+      <c r="H148" t="s">
+        <v>210</v>
+      </c>
+      <c r="I148" t="s">
+        <v>210</v>
+      </c>
+      <c r="J148" t="s">
+        <v>210</v>
+      </c>
+      <c r="K148" t="s">
+        <v>210</v>
+      </c>
+      <c r="L148" t="s">
+        <v>210</v>
+      </c>
+      <c r="M148" t="s">
+        <v>210</v>
+      </c>
+      <c r="N148" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
@@ -7312,6 +8368,30 @@
       <c r="F150" t="s">
         <v>210</v>
       </c>
+      <c r="G150" t="s">
+        <v>210</v>
+      </c>
+      <c r="H150" t="s">
+        <v>210</v>
+      </c>
+      <c r="I150" t="s">
+        <v>210</v>
+      </c>
+      <c r="J150" t="s">
+        <v>210</v>
+      </c>
+      <c r="K150" t="s">
+        <v>210</v>
+      </c>
+      <c r="L150" t="s">
+        <v>210</v>
+      </c>
+      <c r="M150" t="s">
+        <v>210</v>
+      </c>
+      <c r="N150" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7376,6 +8456,30 @@
       <c r="F152" t="s">
         <v>210</v>
       </c>
+      <c r="G152" t="s">
+        <v>210</v>
+      </c>
+      <c r="H152" t="s">
+        <v>210</v>
+      </c>
+      <c r="I152" t="s">
+        <v>210</v>
+      </c>
+      <c r="J152" t="s">
+        <v>210</v>
+      </c>
+      <c r="K152" t="s">
+        <v>210</v>
+      </c>
+      <c r="L152" t="s">
+        <v>210</v>
+      </c>
+      <c r="M152" t="s">
+        <v>210</v>
+      </c>
+      <c r="N152" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7396,6 +8500,30 @@
       <c r="F153" t="s">
         <v>210</v>
       </c>
+      <c r="G153" t="s">
+        <v>210</v>
+      </c>
+      <c r="H153" t="s">
+        <v>210</v>
+      </c>
+      <c r="I153" t="s">
+        <v>210</v>
+      </c>
+      <c r="J153" t="s">
+        <v>210</v>
+      </c>
+      <c r="K153" t="s">
+        <v>210</v>
+      </c>
+      <c r="L153" t="s">
+        <v>210</v>
+      </c>
+      <c r="M153" t="s">
+        <v>210</v>
+      </c>
+      <c r="N153" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
@@ -7416,6 +8544,30 @@
       <c r="F154" t="s">
         <v>210</v>
       </c>
+      <c r="G154" t="s">
+        <v>210</v>
+      </c>
+      <c r="H154" t="s">
+        <v>210</v>
+      </c>
+      <c r="I154" t="s">
+        <v>210</v>
+      </c>
+      <c r="J154" t="s">
+        <v>210</v>
+      </c>
+      <c r="K154" t="s">
+        <v>210</v>
+      </c>
+      <c r="L154" t="s">
+        <v>210</v>
+      </c>
+      <c r="M154" t="s">
+        <v>210</v>
+      </c>
+      <c r="N154" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7436,6 +8588,30 @@
       <c r="F155" t="s">
         <v>210</v>
       </c>
+      <c r="G155" t="s">
+        <v>210</v>
+      </c>
+      <c r="H155" t="s">
+        <v>210</v>
+      </c>
+      <c r="I155" t="s">
+        <v>210</v>
+      </c>
+      <c r="J155" t="s">
+        <v>210</v>
+      </c>
+      <c r="K155" t="s">
+        <v>210</v>
+      </c>
+      <c r="L155" t="s">
+        <v>210</v>
+      </c>
+      <c r="M155" t="s">
+        <v>210</v>
+      </c>
+      <c r="N155" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7500,6 +8676,30 @@
       <c r="F157" t="s">
         <v>210</v>
       </c>
+      <c r="G157" t="s">
+        <v>210</v>
+      </c>
+      <c r="H157" t="s">
+        <v>210</v>
+      </c>
+      <c r="I157" t="s">
+        <v>210</v>
+      </c>
+      <c r="J157" t="s">
+        <v>210</v>
+      </c>
+      <c r="K157" t="s">
+        <v>210</v>
+      </c>
+      <c r="L157" t="s">
+        <v>210</v>
+      </c>
+      <c r="M157" t="s">
+        <v>210</v>
+      </c>
+      <c r="N157" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
@@ -7564,6 +8764,30 @@
       <c r="F159" t="s">
         <v>210</v>
       </c>
+      <c r="G159" t="s">
+        <v>210</v>
+      </c>
+      <c r="H159" t="s">
+        <v>210</v>
+      </c>
+      <c r="I159" t="s">
+        <v>210</v>
+      </c>
+      <c r="J159" t="s">
+        <v>210</v>
+      </c>
+      <c r="K159" t="s">
+        <v>210</v>
+      </c>
+      <c r="L159" t="s">
+        <v>210</v>
+      </c>
+      <c r="M159" t="s">
+        <v>210</v>
+      </c>
+      <c r="N159" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7628,6 +8852,30 @@
       <c r="F161" t="s">
         <v>210</v>
       </c>
+      <c r="G161" t="s">
+        <v>210</v>
+      </c>
+      <c r="H161" t="s">
+        <v>210</v>
+      </c>
+      <c r="I161" t="s">
+        <v>210</v>
+      </c>
+      <c r="J161" t="s">
+        <v>210</v>
+      </c>
+      <c r="K161" t="s">
+        <v>210</v>
+      </c>
+      <c r="L161" t="s">
+        <v>210</v>
+      </c>
+      <c r="M161" t="s">
+        <v>210</v>
+      </c>
+      <c r="N161" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7736,6 +8984,30 @@
       <c r="F164" t="s">
         <v>210</v>
       </c>
+      <c r="G164" t="s">
+        <v>210</v>
+      </c>
+      <c r="H164" t="s">
+        <v>210</v>
+      </c>
+      <c r="I164" t="s">
+        <v>210</v>
+      </c>
+      <c r="J164" t="s">
+        <v>210</v>
+      </c>
+      <c r="K164" t="s">
+        <v>210</v>
+      </c>
+      <c r="L164" t="s">
+        <v>210</v>
+      </c>
+      <c r="M164" t="s">
+        <v>210</v>
+      </c>
+      <c r="N164" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7800,6 +9072,30 @@
       <c r="F166" t="s">
         <v>210</v>
       </c>
+      <c r="G166" t="s">
+        <v>210</v>
+      </c>
+      <c r="H166" t="s">
+        <v>210</v>
+      </c>
+      <c r="I166" t="s">
+        <v>210</v>
+      </c>
+      <c r="J166" t="s">
+        <v>210</v>
+      </c>
+      <c r="K166" t="s">
+        <v>210</v>
+      </c>
+      <c r="L166" t="s">
+        <v>210</v>
+      </c>
+      <c r="M166" t="s">
+        <v>210</v>
+      </c>
+      <c r="N166" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
@@ -7820,6 +9116,30 @@
       <c r="F167" t="s">
         <v>210</v>
       </c>
+      <c r="G167" t="s">
+        <v>210</v>
+      </c>
+      <c r="H167" t="s">
+        <v>210</v>
+      </c>
+      <c r="I167" t="s">
+        <v>210</v>
+      </c>
+      <c r="J167" t="s">
+        <v>210</v>
+      </c>
+      <c r="K167" t="s">
+        <v>210</v>
+      </c>
+      <c r="L167" t="s">
+        <v>210</v>
+      </c>
+      <c r="M167" t="s">
+        <v>210</v>
+      </c>
+      <c r="N167" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7884,6 +9204,30 @@
       <c r="F169" t="s">
         <v>210</v>
       </c>
+      <c r="G169" t="s">
+        <v>210</v>
+      </c>
+      <c r="H169" t="s">
+        <v>210</v>
+      </c>
+      <c r="I169" t="s">
+        <v>210</v>
+      </c>
+      <c r="J169" t="s">
+        <v>210</v>
+      </c>
+      <c r="K169" t="s">
+        <v>210</v>
+      </c>
+      <c r="L169" t="s">
+        <v>210</v>
+      </c>
+      <c r="M169" t="s">
+        <v>210</v>
+      </c>
+      <c r="N169" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -7904,6 +9248,30 @@
       <c r="F170" t="s">
         <v>210</v>
       </c>
+      <c r="G170" t="s">
+        <v>210</v>
+      </c>
+      <c r="H170" t="s">
+        <v>210</v>
+      </c>
+      <c r="I170" t="s">
+        <v>210</v>
+      </c>
+      <c r="J170" t="s">
+        <v>210</v>
+      </c>
+      <c r="K170" t="s">
+        <v>210</v>
+      </c>
+      <c r="L170" t="s">
+        <v>210</v>
+      </c>
+      <c r="M170" t="s">
+        <v>210</v>
+      </c>
+      <c r="N170" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -8100,6 +9468,30 @@
       <c r="F175" t="s">
         <v>210</v>
       </c>
+      <c r="G175" t="s">
+        <v>210</v>
+      </c>
+      <c r="H175" t="s">
+        <v>210</v>
+      </c>
+      <c r="I175" t="s">
+        <v>210</v>
+      </c>
+      <c r="J175" t="s">
+        <v>210</v>
+      </c>
+      <c r="K175" t="s">
+        <v>210</v>
+      </c>
+      <c r="L175" t="s">
+        <v>210</v>
+      </c>
+      <c r="M175" t="s">
+        <v>210</v>
+      </c>
+      <c r="N175" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8208,6 +9600,30 @@
       <c r="F178" t="s">
         <v>210</v>
       </c>
+      <c r="G178" t="s">
+        <v>210</v>
+      </c>
+      <c r="H178" t="s">
+        <v>210</v>
+      </c>
+      <c r="I178" t="s">
+        <v>210</v>
+      </c>
+      <c r="J178" t="s">
+        <v>210</v>
+      </c>
+      <c r="K178" t="s">
+        <v>210</v>
+      </c>
+      <c r="L178" t="s">
+        <v>210</v>
+      </c>
+      <c r="M178" t="s">
+        <v>210</v>
+      </c>
+      <c r="N178" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8360,6 +9776,30 @@
       <c r="F182" t="s">
         <v>210</v>
       </c>
+      <c r="G182" t="s">
+        <v>210</v>
+      </c>
+      <c r="H182" t="s">
+        <v>210</v>
+      </c>
+      <c r="I182" t="s">
+        <v>210</v>
+      </c>
+      <c r="J182" t="s">
+        <v>210</v>
+      </c>
+      <c r="K182" t="s">
+        <v>210</v>
+      </c>
+      <c r="L182" t="s">
+        <v>210</v>
+      </c>
+      <c r="M182" t="s">
+        <v>210</v>
+      </c>
+      <c r="N182" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8380,6 +9820,30 @@
       <c r="F183" t="s">
         <v>210</v>
       </c>
+      <c r="G183" t="s">
+        <v>210</v>
+      </c>
+      <c r="H183" t="s">
+        <v>210</v>
+      </c>
+      <c r="I183" t="s">
+        <v>210</v>
+      </c>
+      <c r="J183" t="s">
+        <v>210</v>
+      </c>
+      <c r="K183" t="s">
+        <v>210</v>
+      </c>
+      <c r="L183" t="s">
+        <v>210</v>
+      </c>
+      <c r="M183" t="s">
+        <v>210</v>
+      </c>
+      <c r="N183" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8620,6 +10084,30 @@
       <c r="F189" t="s">
         <v>210</v>
       </c>
+      <c r="G189" t="s">
+        <v>210</v>
+      </c>
+      <c r="H189" t="s">
+        <v>210</v>
+      </c>
+      <c r="I189" t="s">
+        <v>210</v>
+      </c>
+      <c r="J189" t="s">
+        <v>210</v>
+      </c>
+      <c r="K189" t="s">
+        <v>210</v>
+      </c>
+      <c r="L189" t="s">
+        <v>210</v>
+      </c>
+      <c r="M189" t="s">
+        <v>210</v>
+      </c>
+      <c r="N189" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="1">
@@ -8640,6 +10128,30 @@
       <c r="F190" t="s">
         <v>210</v>
       </c>
+      <c r="G190" t="s">
+        <v>210</v>
+      </c>
+      <c r="H190" t="s">
+        <v>210</v>
+      </c>
+      <c r="I190" t="s">
+        <v>210</v>
+      </c>
+      <c r="J190" t="s">
+        <v>210</v>
+      </c>
+      <c r="K190" t="s">
+        <v>210</v>
+      </c>
+      <c r="L190" t="s">
+        <v>210</v>
+      </c>
+      <c r="M190" t="s">
+        <v>210</v>
+      </c>
+      <c r="N190" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>210</v>
+      </c>
+      <c r="G192" t="s">
+        <v>210</v>
+      </c>
+      <c r="H192" t="s">
+        <v>210</v>
+      </c>
+      <c r="I192" t="s">
+        <v>210</v>
+      </c>
+      <c r="J192" t="s">
+        <v>210</v>
+      </c>
+      <c r="K192" t="s">
+        <v>210</v>
+      </c>
+      <c r="L192" t="s">
+        <v>210</v>
+      </c>
+      <c r="M192" t="s">
+        <v>210</v>
+      </c>
+      <c r="N192" t="s">
         <v>210</v>
       </c>
     </row>

--- a/sequences/10_retrieval_2.xlsx
+++ b/sequences/10_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>sieben</t>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>arten</t>
   </si>
   <si>
     <t>ärgern</t>
   </si>
   <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>wecken</t>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>freuen</t>
   </si>
   <si>
     <t>heilen</t>
   </si>
   <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>mieten</t>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
   </si>
   <si>
     <t>laufen</t>
   </si>
   <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>münzen</t>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>füllen</t>
   </si>
   <si>
     <t>schützen</t>
   </si>
   <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>zielen</t>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>lesen</t>
   </si>
   <si>
     <t>rufen</t>
   </si>
   <si>
-    <t>warten</t>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>haben</t>
   </si>
   <si>
     <t>stärken</t>
   </si>
   <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>osten</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
     <t>jubeln</t>
   </si>
   <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
   </si>
   <si>
     <t>face/face027.jpg</t>
